--- a/VL.xlsx
+++ b/VL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\Trafikstyring V2\P6data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF442A-9371-429C-9224-F487FC70501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A998DA6-185A-48C3-A9FA-7385C3E62A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="16830" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
   <si>
     <t>24-2267</t>
   </si>
@@ -140,21 +140,6 @@
     <t>Blabla 5</t>
   </si>
   <si>
-    <t>FV10</t>
-  </si>
-  <si>
-    <t>FV11</t>
-  </si>
-  <si>
-    <t>FV12</t>
-  </si>
-  <si>
-    <t>FV13</t>
-  </si>
-  <si>
-    <t>FV14</t>
-  </si>
-  <si>
     <t>Starttid</t>
   </si>
   <si>
@@ -173,23 +158,26 @@
     <t>on</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>lø</t>
   </si>
   <si>
     <t>sø</t>
+  </si>
+  <si>
+    <t>FV8</t>
+  </si>
+  <si>
+    <t>fv9</t>
+  </si>
+  <si>
+    <t>fv8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +190,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,16 +230,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +631,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -656,25 +664,25 @@
         <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>10</v>
@@ -721,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
-        <v>16</v>
+        <v>1655</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -754,25 +762,17 @@
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>14</v>
@@ -818,10 +818,10 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -837,7 +837,7 @@
         <v>70112211</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2">
         <v>31400</v>
@@ -852,25 +852,17 @@
         <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>14</v>
@@ -913,13 +905,13 @@
       <c r="C4" s="2">
         <v>3400</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -935,7 +927,7 @@
         <v>70112212</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2">
         <v>31400</v>
@@ -950,25 +942,17 @@
         <v>30</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>14</v>
@@ -1014,10 +998,10 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1033,7 +1017,7 @@
         <v>70112213</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2">
         <v>31400</v>
@@ -1048,25 +1032,17 @@
         <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>14</v>
@@ -1112,10 +1088,10 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1131,7 +1107,7 @@
         <v>70112214</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2">
         <v>31400</v>
@@ -1146,25 +1122,17 @@
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>14</v>
@@ -1210,10 +1178,10 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1229,7 +1197,7 @@
         <v>70112215</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2">
         <v>31400</v>
@@ -1244,25 +1212,21 @@
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>14</v>
@@ -1294,6 +1258,9 @@
       <c r="AF7" s="2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VL.xlsx
+++ b/VL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A998DA6-185A-48C3-A9FA-7385C3E62A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB86992-F792-49D6-A974-BC5E2BD4C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="2340" yWindow="3360" windowWidth="21600" windowHeight="10785" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="47">
   <si>
     <t>24-2267</t>
   </si>
@@ -171,13 +172,19 @@
   </si>
   <si>
     <t>fv8</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>16:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +196,6 @@
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,13 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,11 +726,11 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>1655</v>
-      </c>
-      <c r="F2" s="2">
-        <v>18</v>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -744,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="2">
-        <v>70112210</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>12</v>
@@ -819,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>9</v>
+        <v>1657</v>
       </c>
       <c r="F3" s="2">
         <v>17</v>
@@ -834,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="2">
-        <v>70112211</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>42</v>
@@ -905,7 +903,7 @@
       <c r="C4" s="2">
         <v>3400</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -924,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="2">
-        <v>70112212</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1014,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="2">
-        <v>70112213</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>44</v>
@@ -1104,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="2">
-        <v>70112214</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
@@ -1194,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="2">
-        <v>70112215</v>
+        <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>44</v>
@@ -1259,8 +1257,208 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF1B5-7749-4A70-A99E-768AB8618D1E}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>70112212</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="M2" s="2">
+        <v>31400</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VL.xlsx
+++ b/VL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB86992-F792-49D6-A974-BC5E2BD4C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414DC86-9DF9-405B-A940-125D19FD324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="3360" windowWidth="21600" windowHeight="10785" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
   <si>
     <t>24-2267</t>
   </si>
@@ -174,10 +174,37 @@
     <t>fv8</t>
   </si>
   <si>
-    <t>18:00</t>
-  </si>
-  <si>
     <t>16:55</t>
+  </si>
+  <si>
+    <t>16:52</t>
+  </si>
+  <si>
+    <t>18:02</t>
+  </si>
+  <si>
+    <t>16:53</t>
+  </si>
+  <si>
+    <t>18:03</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>18:04</t>
+  </si>
+  <si>
+    <t>16:51</t>
+  </si>
+  <si>
+    <t>18:01</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>18:05</t>
   </si>
 </sst>
 </file>
@@ -587,7 +614,7 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -762,16 +789,12 @@
       <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
         <v>14</v>
       </c>
@@ -816,11 +839,11 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1657</v>
-      </c>
-      <c r="F3" s="2">
-        <v>17</v>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -852,16 +875,12 @@
       <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
         <v>14</v>
       </c>
@@ -906,11 +925,11 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>18</v>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -996,11 +1015,11 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19</v>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1086,11 +1105,11 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -1176,11 +1195,11 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21</v>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>

--- a/VL.xlsx
+++ b/VL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebk\makro\p6_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414DC86-9DF9-405B-A940-125D19FD324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C3C59-EB03-4D5A-81DD-F91FC0A9DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3360" windowWidth="21600" windowHeight="10785" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="29040" windowHeight="16830" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>24-2267</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>18:05</t>
+  </si>
+  <si>
+    <t>UndtagneTransporttyper</t>
   </si>
 </sst>
 </file>
@@ -613,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,34 +713,34 @@
         <v>36</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
